--- a/TestCalc.xlsx
+++ b/TestCalc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Servers</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Customer1</t>
+  </si>
+  <si>
+    <t>Customer2</t>
   </si>
 </sst>
 </file>
@@ -54,7 +57,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,6 +67,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -80,9 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,41 +370,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <f>SUM(B2:B3)</f>
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>SUM(E2:E3)</f>
         <v>150</v>
       </c>
     </row>

--- a/TestCalc.xlsx
+++ b/TestCalc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Servers</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Customer2</t>
+  </si>
+  <si>
+    <t>ops</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,18 +419,32 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <f>SUM(B2:B3)</f>
-        <v>150</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
-        <f>SUM(E2:E3)</f>
-        <v>150</v>
+      <c r="E5">
+        <f>SUM(E2:E4)</f>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/TestCalc.xlsx
+++ b/TestCalc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Servers</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Customer2</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,6 +433,22 @@
         <v>150</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>1.1*B4</f>
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f>1.1*E4</f>
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
